--- a/Datos/CoberturasVacunas2016_2019.xlsx
+++ b/Datos/CoberturasVacunas2016_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_ortizv1_uniandes_edu_co/Documents/Escritorio/Daniel/Uniandes/Sem 6/BI/Proyecto2/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C709361C-2A7C-4993-8DFB-E9F1F0B77FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C709361C-2A7C-4993-8DFB-E9F1F0B77FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F3D2A3-9C1C-49EB-87C0-C3D8464FC943}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="29" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="145">
   <si>
     <t>Código</t>
   </si>
@@ -522,66 +522,6 @@
   </si>
   <si>
     <t>99</t>
-  </si>
-  <si>
-    <t>Población de 1 Año</t>
-  </si>
-  <si>
-    <t>Población 5 años</t>
-  </si>
-  <si>
-    <t>VARICELA DE 5 AÑOS</t>
-  </si>
-  <si>
-    <t>FLU DE 18 A 40 AÑOS UNICA</t>
-  </si>
-  <si>
-    <t>FLU DE 41 A 59 AÑOS UNICA</t>
-  </si>
-  <si>
-    <t>Población &gt; de 60 años</t>
-  </si>
-  <si>
-    <t>FLU DE 60 AÑOS Y MAS</t>
-  </si>
-  <si>
-    <t>FLU Gestantes a partir de la semana 14</t>
-  </si>
-  <si>
-    <t>VPH Niñas de 9 años</t>
-  </si>
-  <si>
-    <t>Población Menor 1 año (Meta Programática)</t>
-  </si>
-  <si>
-    <t>3ras. Dosis</t>
-  </si>
-  <si>
-    <t>(Meta Programática)</t>
-  </si>
-  <si>
-    <t>Meta Programática)</t>
-  </si>
-  <si>
-    <t>Dosis Ref.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (DANE) 30%</t>
-  </si>
-  <si>
-    <t>U. D. C/ embarazo</t>
-  </si>
-  <si>
-    <t>VPH 1a Dosis</t>
-  </si>
-  <si>
-    <t>% 1a Dosis</t>
-  </si>
-  <si>
-    <t>VPH 2a Dosis</t>
-  </si>
-  <si>
-    <t>% 2da Dosis</t>
   </si>
   <si>
     <t>SAN_ANDRES_ISLA</t>
@@ -4153,10 +4093,10 @@
   <dimension ref="A1:BJ52"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="BK33" sqref="BK33"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12743,10 +12683,10 @@
   <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="BQ32" sqref="BQ32"/>
+      <selection pane="bottomRight" activeCell="BM1" sqref="BM1:BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22192,7 +22132,7 @@
   <dimension ref="A1:BR45"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BB38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <selection pane="bottomRight" activeCell="BR2" sqref="BR2"/>
@@ -31604,10 +31544,10 @@
   <dimension ref="A1:BX69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BJ31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BU32" sqref="BU32"/>
+      <selection pane="bottomRight" activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31689,384 +31629,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="159" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="500" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="500"/>
       <c r="E1" s="501"/>
-      <c r="F1" s="502" t="s">
-        <v>99</v>
-      </c>
+      <c r="F1" s="502"/>
       <c r="G1" s="502"/>
-      <c r="H1" s="502" t="s">
-        <v>100</v>
-      </c>
+      <c r="H1" s="502"/>
       <c r="I1" s="502"/>
-      <c r="J1" s="503" t="s">
-        <v>101</v>
-      </c>
+      <c r="J1" s="503"/>
       <c r="K1" s="503"/>
-      <c r="L1" s="504" t="s">
-        <v>5</v>
-      </c>
+      <c r="L1" s="504"/>
       <c r="M1" s="504"/>
-      <c r="N1" s="505" t="s">
-        <v>6</v>
-      </c>
+      <c r="N1" s="505"/>
       <c r="O1" s="505"/>
-      <c r="P1" s="506" t="s">
-        <v>7</v>
-      </c>
+      <c r="P1" s="506"/>
       <c r="Q1" s="506"/>
-      <c r="R1" s="506" t="s">
-        <v>7</v>
-      </c>
+      <c r="R1" s="506"/>
       <c r="S1" s="506"/>
-      <c r="T1" s="506" t="s">
-        <v>7</v>
-      </c>
+      <c r="T1" s="506"/>
       <c r="U1" s="506"/>
-      <c r="V1" s="456" t="s">
-        <v>8</v>
-      </c>
+      <c r="V1" s="456"/>
       <c r="W1" s="456"/>
-      <c r="X1" s="456" t="s">
-        <v>9</v>
-      </c>
+      <c r="X1" s="456"/>
       <c r="Y1" s="456"/>
-      <c r="Z1" s="499" t="s">
-        <v>10</v>
-      </c>
+      <c r="Z1" s="499"/>
       <c r="AA1" s="499"/>
-      <c r="AB1" s="499" t="s">
-        <v>10</v>
-      </c>
+      <c r="AB1" s="499"/>
       <c r="AC1" s="499"/>
-      <c r="AD1" s="451" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD1" s="451"/>
       <c r="AE1" s="451"/>
-      <c r="AF1" s="451" t="s">
-        <v>11</v>
-      </c>
+      <c r="AF1" s="451"/>
       <c r="AG1" s="451"/>
-      <c r="AH1" s="270" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI1" s="508" t="s">
-        <v>13</v>
-      </c>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="508"/>
       <c r="AJ1" s="508"/>
-      <c r="AK1" s="509" t="s">
-        <v>14</v>
-      </c>
+      <c r="AK1" s="509"/>
       <c r="AL1" s="509"/>
-      <c r="AM1" s="510" t="s">
-        <v>19</v>
-      </c>
+      <c r="AM1" s="510"/>
       <c r="AN1" s="510"/>
-      <c r="AO1" s="511" t="s">
-        <v>15</v>
-      </c>
+      <c r="AO1" s="511"/>
       <c r="AP1" s="511"/>
-      <c r="AQ1" s="451" t="s">
-        <v>16</v>
-      </c>
+      <c r="AQ1" s="451"/>
       <c r="AR1" s="451"/>
-      <c r="AS1" s="451" t="s">
-        <v>17</v>
-      </c>
+      <c r="AS1" s="451"/>
       <c r="AT1" s="451"/>
-      <c r="AU1" s="209" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV1" s="209" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="507" t="s">
-        <v>20</v>
-      </c>
+      <c r="AU1" s="209"/>
+      <c r="AV1" s="209"/>
+      <c r="AW1" s="507"/>
       <c r="AX1" s="507"/>
-      <c r="AY1" s="512" t="s">
-        <v>21</v>
-      </c>
+      <c r="AY1" s="512"/>
       <c r="AZ1" s="512"/>
-      <c r="BA1" s="271" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB1" s="507" t="s">
-        <v>23</v>
-      </c>
+      <c r="BA1" s="271"/>
+      <c r="BB1" s="507"/>
       <c r="BC1" s="507"/>
-      <c r="BD1" s="512" t="s">
-        <v>24</v>
-      </c>
+      <c r="BD1" s="512"/>
       <c r="BE1" s="512"/>
-      <c r="BF1" s="508" t="s">
-        <v>25</v>
-      </c>
+      <c r="BF1" s="508"/>
       <c r="BG1" s="508"/>
-      <c r="BH1" s="509" t="s">
-        <v>146</v>
-      </c>
+      <c r="BH1" s="509"/>
       <c r="BI1" s="509"/>
-      <c r="BJ1" s="272" t="s">
-        <v>147</v>
-      </c>
-      <c r="BK1" s="272" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL1" s="273" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM1" s="515" t="s">
-        <v>150</v>
-      </c>
+      <c r="BJ1" s="272"/>
+      <c r="BK1" s="272"/>
+      <c r="BL1" s="273"/>
+      <c r="BM1" s="515"/>
       <c r="BN1" s="515"/>
-      <c r="BO1" s="516" t="s">
-        <v>151</v>
-      </c>
+      <c r="BO1" s="516"/>
       <c r="BP1" s="516"/>
-      <c r="BQ1" s="517" t="s">
-        <v>29</v>
-      </c>
+      <c r="BQ1" s="517"/>
       <c r="BR1" s="517"/>
-      <c r="BS1" s="513" t="s">
-        <v>152</v>
-      </c>
+      <c r="BS1" s="513"/>
       <c r="BT1" s="513"/>
       <c r="BU1" s="513"/>
       <c r="BV1" s="513"/>
       <c r="BW1" s="514"/>
     </row>
-    <row r="2" spans="1:76" s="184" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="269" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="274" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="276" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="276" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="276" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="168" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="277" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="278" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="278" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="278" t="s">
-        <v>154</v>
-      </c>
-      <c r="U2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="279" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="279" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="280" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="280" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="281" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="281" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="282" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI2" s="283" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK2" s="284" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" s="285" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN2" s="285" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO2" s="286" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ2" s="287" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS2" s="281" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU2" s="281" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV2" s="281" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW2" s="288" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX2" s="289" t="s">
-        <v>33</v>
-      </c>
-      <c r="AY2" s="290" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ2" s="289" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA2" s="291" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB2" s="288" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC2" s="289" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD2" s="290" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE2" s="289" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF2" s="292" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG2" s="289" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH2" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI2" s="275" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ2" s="169" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK2" s="169" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL2" s="294" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM2" s="169" t="s">
-        <v>48</v>
-      </c>
-      <c r="BN2" s="169" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO2" s="169" t="s">
-        <v>48</v>
-      </c>
-      <c r="BP2" s="169" t="s">
-        <v>33</v>
-      </c>
-      <c r="BQ2" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR2" s="295" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS2" s="296" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT2" s="233" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU2" s="297" t="s">
-        <v>161</v>
-      </c>
-      <c r="BV2" s="233" t="s">
-        <v>162</v>
-      </c>
-      <c r="BW2" s="298" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX2" s="421" t="s">
-        <v>50</v>
-      </c>
+    <row r="2" spans="1:76" s="184" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="275"/>
+      <c r="V2" s="279"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="279"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="280"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="280"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="281"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="281"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="282"/>
+      <c r="AI2" s="283"/>
+      <c r="AJ2" s="275"/>
+      <c r="AK2" s="284"/>
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="285"/>
+      <c r="AN2" s="285"/>
+      <c r="AO2" s="286"/>
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="287"/>
+      <c r="AR2" s="275"/>
+      <c r="AS2" s="281"/>
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="281"/>
+      <c r="AV2" s="281"/>
+      <c r="AW2" s="288"/>
+      <c r="AX2" s="289"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="289"/>
+      <c r="BA2" s="291"/>
+      <c r="BB2" s="288"/>
+      <c r="BC2" s="289"/>
+      <c r="BD2" s="290"/>
+      <c r="BE2" s="289"/>
+      <c r="BF2" s="292"/>
+      <c r="BG2" s="289"/>
+      <c r="BH2" s="293"/>
+      <c r="BI2" s="275"/>
+      <c r="BJ2" s="169"/>
+      <c r="BK2" s="169"/>
+      <c r="BL2" s="294"/>
+      <c r="BM2" s="169"/>
+      <c r="BN2" s="169"/>
+      <c r="BO2" s="169"/>
+      <c r="BP2" s="169"/>
+      <c r="BQ2" s="170"/>
+      <c r="BR2" s="295"/>
+      <c r="BS2" s="296"/>
+      <c r="BT2" s="233"/>
+      <c r="BU2" s="297"/>
+      <c r="BV2" s="233"/>
+      <c r="BW2" s="298"/>
+      <c r="BX2" s="421"/>
     </row>
     <row r="3" spans="1:76" s="195" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="186" t="s">
@@ -39671,7 +39383,7 @@
         <v>135</v>
       </c>
       <c r="B32" s="187" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C32" s="299">
         <v>853</v>
@@ -41766,301 +41478,80 @@
       <c r="AJ40" s="199"/>
     </row>
     <row r="41" spans="1:76" s="195" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="201">
-        <f>SUM(C3:C39)</f>
-        <v>680127</v>
-      </c>
-      <c r="D41" s="202">
-        <f>SUM(D3:D39)</f>
-        <v>611556</v>
-      </c>
-      <c r="E41" s="189">
-        <f>ROUND(D41/$C41*100,1)</f>
-        <v>89.9</v>
-      </c>
-      <c r="F41" s="202">
-        <f>SUM(F3:F39)</f>
-        <v>548044</v>
-      </c>
-      <c r="G41" s="189">
-        <f>ROUND(F41/$C41*100,1)</f>
-        <v>80.599999999999994</v>
-      </c>
-      <c r="H41" s="202">
-        <f>SUM(H3:H39)</f>
-        <v>54864</v>
-      </c>
-      <c r="I41" s="189">
-        <f>ROUND(H41/$C41*100,1)</f>
-        <v>8.1</v>
-      </c>
-      <c r="J41" s="202">
-        <f>SUM(J3:J39)</f>
-        <v>602908</v>
-      </c>
-      <c r="K41" s="189">
-        <f>ROUND(J41/$C41*100,1)</f>
-        <v>88.6</v>
-      </c>
-      <c r="L41" s="202">
-        <f>SUM(L3:L39)</f>
-        <v>647017</v>
-      </c>
-      <c r="M41" s="189">
-        <f>ROUND(L41/$C41*100,1)</f>
-        <v>95.1</v>
-      </c>
-      <c r="N41" s="202">
-        <f>SUM(N3:N39)</f>
-        <v>635634</v>
-      </c>
-      <c r="O41" s="189">
-        <f>ROUND(N41/$C41*100,1)</f>
-        <v>93.5</v>
-      </c>
-      <c r="P41" s="202">
-        <f>SUM(P3:P39)</f>
-        <v>647207</v>
-      </c>
-      <c r="Q41" s="189">
-        <f>ROUND(P41/$C41*100,1)</f>
-        <v>95.2</v>
-      </c>
-      <c r="R41" s="202">
-        <f>SUM(R3:R39)</f>
-        <v>641459</v>
-      </c>
-      <c r="S41" s="189">
-        <f>ROUND(R41/$C41*100,1)</f>
-        <v>94.3</v>
-      </c>
-      <c r="T41" s="202">
-        <f>SUM(T3:T39)</f>
-        <v>635987</v>
-      </c>
-      <c r="U41" s="189">
-        <f>ROUND(T41/$C41*100,1)</f>
-        <v>93.5</v>
-      </c>
-      <c r="V41" s="202">
-        <f>SUM(V3:V39)</f>
-        <v>628139</v>
-      </c>
-      <c r="W41" s="189">
-        <f>ROUND(V41/C41*100,1)</f>
-        <v>92.4</v>
-      </c>
-      <c r="X41" s="202">
-        <f>SUM(X3:X39)</f>
-        <v>625389</v>
-      </c>
-      <c r="Y41" s="189">
-        <f>ROUND(X41/$C41*100,1)</f>
-        <v>92</v>
-      </c>
-      <c r="Z41" s="202">
-        <f>SUM(Z3:Z39)</f>
-        <v>555450</v>
-      </c>
-      <c r="AA41" s="189">
-        <f>ROUND(Z41/C41*100,1)</f>
-        <v>81.7</v>
-      </c>
-      <c r="AB41" s="202">
-        <f>SUM(AB3:AB39)</f>
-        <v>423301</v>
-      </c>
-      <c r="AC41" s="189">
-        <f>ROUND(AB41/C41*100,1)</f>
-        <v>62.2</v>
-      </c>
-      <c r="AD41" s="202">
-        <f>SUM(AD3:AD39)</f>
-        <v>653988</v>
-      </c>
-      <c r="AE41" s="189">
-        <f>ROUND(AD41/$C41*100,1)</f>
-        <v>96.2</v>
-      </c>
-      <c r="AF41" s="202">
-        <f>SUM(AF3:AF39)</f>
-        <v>644312</v>
-      </c>
-      <c r="AG41" s="189">
-        <f>ROUND(AF41/$C41*100,1)</f>
-        <v>94.7</v>
-      </c>
-      <c r="AH41" s="203">
-        <f>SUM(AH3:AH39)</f>
-        <v>702452</v>
-      </c>
-      <c r="AI41" s="202">
-        <f>SUM(AI3:AI39)</f>
-        <v>663997</v>
-      </c>
-      <c r="AJ41" s="190">
-        <f>ROUND(AI41/$AH41*100,1)</f>
-        <v>94.5</v>
-      </c>
-      <c r="AK41" s="202">
-        <f>SUM(AK3:AK39)</f>
-        <v>651101</v>
-      </c>
-      <c r="AL41" s="189">
-        <f>ROUND(AK41/$AH41*100,1)</f>
-        <v>92.7</v>
-      </c>
-      <c r="AM41" s="202">
-        <f>SUM(AM3:AM39)</f>
-        <v>666520</v>
-      </c>
-      <c r="AN41" s="189">
-        <f>ROUND(AM41/$AH41*100,1)</f>
-        <v>94.9</v>
-      </c>
-      <c r="AO41" s="202">
-        <f>SUM(AO3:AO39)</f>
-        <v>631253</v>
-      </c>
-      <c r="AP41" s="189">
-        <f>ROUND(AO41/$AH41*100,1)</f>
-        <v>89.9</v>
-      </c>
-      <c r="AQ41" s="202">
-        <f>SUM(AQ3:AQ39)</f>
-        <v>652004</v>
-      </c>
-      <c r="AR41" s="189">
-        <f>ROUND(AQ41/$AH41*100,1)</f>
-        <v>92.8</v>
-      </c>
-      <c r="AS41" s="202">
-        <f>SUM(AS3:AS39)</f>
-        <v>11050</v>
-      </c>
-      <c r="AT41" s="189">
-        <f>AS41/AH41*100</f>
-        <v>1.5730612198413558</v>
-      </c>
-      <c r="AU41" s="202">
-        <f>SUM(AU3:AU39)</f>
-        <v>10481</v>
-      </c>
-      <c r="AV41" s="202">
-        <f>SUM(AV3:AV39)</f>
-        <v>26419</v>
-      </c>
-      <c r="AW41" s="202">
-        <f>SUM(AW3:AW39)</f>
-        <v>619621</v>
-      </c>
-      <c r="AX41" s="189">
-        <f>ROUND(AW41/$AH41*100,1)</f>
-        <v>88.2</v>
-      </c>
-      <c r="AY41" s="202">
-        <f>SUM(AY3:AY39)</f>
-        <v>619043</v>
-      </c>
-      <c r="AZ41" s="189">
-        <f>ROUND(AY41/$AH41*100,1)</f>
-        <v>88.1</v>
-      </c>
-      <c r="BA41" s="204">
-        <f>SUM(BA3:BA39)</f>
-        <v>746063</v>
-      </c>
-      <c r="BB41" s="202">
-        <f>SUM(BB3:BB39)</f>
-        <v>665503</v>
-      </c>
-      <c r="BC41" s="192">
-        <f>ROUND(BB41/$BA41*100,1)</f>
-        <v>89.2</v>
-      </c>
-      <c r="BD41" s="202">
-        <f>SUM(BD3:BD39)</f>
-        <v>664985</v>
-      </c>
-      <c r="BE41" s="192">
-        <f>ROUND(BD41/$BA41*100,1)</f>
-        <v>89.1</v>
-      </c>
-      <c r="BF41" s="202">
-        <f>SUM(BF3:BF39)</f>
-        <v>666362</v>
-      </c>
-      <c r="BG41" s="192">
-        <f>ROUND(BF41/$BA41*100,1)</f>
-        <v>89.3</v>
-      </c>
-      <c r="BH41" s="202">
-        <f>SUM(BH3:BH39)</f>
-        <v>242357</v>
-      </c>
-      <c r="BI41" s="192">
-        <f>ROUND(BH41/($BA41/2)*100,1)</f>
-        <v>65</v>
-      </c>
-      <c r="BJ41" s="205">
-        <f>SUM(BJ3:BJ39)</f>
-        <v>430176</v>
-      </c>
-      <c r="BK41" s="205">
-        <f>SUM(BK3:BK39)</f>
-        <v>410927</v>
-      </c>
-      <c r="BL41" s="206">
-        <f>SUM(BL3:BL39)</f>
-        <v>1859664</v>
-      </c>
-      <c r="BM41" s="205">
-        <f>SUM(BM3:BM39)</f>
-        <v>1412522</v>
-      </c>
-      <c r="BN41" s="194">
-        <f>BM41/BL41*100</f>
-        <v>75.955764052000802</v>
-      </c>
-      <c r="BO41" s="205">
-        <f>SUM(BO3:BO39)</f>
-        <v>478617</v>
-      </c>
-      <c r="BP41" s="192">
-        <f>ROUND(BO41/C41*100,1)</f>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="BQ41" s="205">
-        <f>SUM(BQ3:BQ39)</f>
-        <v>527558</v>
-      </c>
-      <c r="BR41" s="192">
-        <f>ROUND(BQ41/C41*100,1)</f>
-        <v>77.599999999999994</v>
-      </c>
-      <c r="BS41" s="205">
-        <f>SUM(BS3:BS39)</f>
-        <v>370564</v>
-      </c>
-      <c r="BT41" s="207">
-        <f>SUM(BT3:BT39)</f>
-        <v>126299</v>
-      </c>
-      <c r="BU41" s="192">
-        <f>BT41/BS41*100</f>
-        <v>34.08291145389191</v>
-      </c>
-      <c r="BV41" s="207">
-        <f>SUM(BV3:BV39)</f>
-        <v>40997</v>
-      </c>
-      <c r="BW41" s="192">
-        <f>BV41/BS41*100</f>
-        <v>11.06340605131637</v>
-      </c>
+      <c r="B41" s="200"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="189"/>
+      <c r="N41" s="202"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="202"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="202"/>
+      <c r="S41" s="189"/>
+      <c r="T41" s="202"/>
+      <c r="U41" s="189"/>
+      <c r="V41" s="202"/>
+      <c r="W41" s="189"/>
+      <c r="X41" s="202"/>
+      <c r="Y41" s="189"/>
+      <c r="Z41" s="202"/>
+      <c r="AA41" s="189"/>
+      <c r="AB41" s="202"/>
+      <c r="AC41" s="189"/>
+      <c r="AD41" s="202"/>
+      <c r="AE41" s="189"/>
+      <c r="AF41" s="202"/>
+      <c r="AG41" s="189"/>
+      <c r="AH41" s="203"/>
+      <c r="AI41" s="202"/>
+      <c r="AJ41" s="190"/>
+      <c r="AK41" s="202"/>
+      <c r="AL41" s="189"/>
+      <c r="AM41" s="202"/>
+      <c r="AN41" s="189"/>
+      <c r="AO41" s="202"/>
+      <c r="AP41" s="189"/>
+      <c r="AQ41" s="202"/>
+      <c r="AR41" s="189"/>
+      <c r="AS41" s="202"/>
+      <c r="AT41" s="189"/>
+      <c r="AU41" s="202"/>
+      <c r="AV41" s="202"/>
+      <c r="AW41" s="202"/>
+      <c r="AX41" s="189"/>
+      <c r="AY41" s="202"/>
+      <c r="AZ41" s="189"/>
+      <c r="BA41" s="204"/>
+      <c r="BB41" s="202"/>
+      <c r="BC41" s="192"/>
+      <c r="BD41" s="202"/>
+      <c r="BE41" s="192"/>
+      <c r="BF41" s="202"/>
+      <c r="BG41" s="192"/>
+      <c r="BH41" s="202"/>
+      <c r="BI41" s="192"/>
+      <c r="BJ41" s="205"/>
+      <c r="BK41" s="205"/>
+      <c r="BL41" s="206"/>
+      <c r="BM41" s="205"/>
+      <c r="BN41" s="194"/>
+      <c r="BO41" s="205"/>
+      <c r="BP41" s="192"/>
+      <c r="BQ41" s="205"/>
+      <c r="BR41" s="192"/>
+      <c r="BS41" s="205"/>
+      <c r="BT41" s="207"/>
+      <c r="BU41" s="192"/>
+      <c r="BV41" s="207"/>
+      <c r="BW41" s="192"/>
       <c r="BX41" s="208"/>
     </row>
     <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
